--- a/docs/StructureDefinition-Practitioner.xlsx
+++ b/docs/StructureDefinition-Practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Practitioner.xlsx
+++ b/docs/StructureDefinition-Practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.10</t>
+    <t>1.4.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T16:44:16+00:00</t>
+    <t>2025-04-30T18:27:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Practitioner.xlsx
+++ b/docs/StructureDefinition-Practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Practitioner.xlsx
+++ b/docs/StructureDefinition-Practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Practitioner.xlsx
+++ b/docs/StructureDefinition-Practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Practitioner.xlsx
+++ b/docs/StructureDefinition-Practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -706,7 +706,8 @@
     <t>376: source value based on NEW PERSON - NPI (200-41.99)</t>
   </si>
   <si>
-    <t>SStaff.PrescribingProvider.NPI,SStaff.SStaff.NPI</t>
+    <t>SStaff.PrescribingProvider.NPI
+SStaff.SStaff.NPI</t>
   </si>
   <si>
     <t>CX.1 / EI.1</t>
@@ -895,7 +896,8 @@
     <t>377: source value based on NEW PERSON - DEA# (200-53.2)</t>
   </si>
   <si>
-    <t>SStaff.PrescribingProvider.DEA,SStaff.SStaff.DEA</t>
+    <t>SStaff.PrescribingProvider.DEA
+SStaff.SStaff.DEA</t>
   </si>
   <si>
     <t>Practitioner.identifier:va-DEA.period</t>
@@ -948,7 +950,8 @@
     <t>378: source value based on NEW PERSON - VA# (200-53.3)</t>
   </si>
   <si>
-    <t>SStaff.PrescribingProvider.VANumber,SStaff.SStaff.VANumber</t>
+    <t>SStaff.PrescribingProvider.VANumber
+SStaff.SStaff.VANumber</t>
   </si>
   <si>
     <t>Practitioner.identifier:va-nr.period</t>
@@ -998,7 +1001,8 @@
     <t>379: source value based on NEW PERSON - VPID (200-9000)</t>
   </si>
   <si>
-    <t>SStaff.PrescribingProvider.VPID,SStaff.SStaff.VAPersonIdentificationNumber</t>
+    <t>SStaff.PrescribingProvider.VPID
+SStaff.SStaff.VAPersonIdentificationNumber</t>
   </si>
   <si>
     <t>Practitioner.identifier:va-VPID.period</t>
@@ -1181,7 +1185,11 @@
     <t>382: source value based on NEW PERSON - NAME COMPONENTS &gt; NAME COMPONENTS - (200-10.1 &gt; 20-)</t>
   </si>
   <si>
-    <t>SStaff.SStaff.FirstName,SStaff.SStaff.LastName,SStaff.SStaff.MiddleName,SStaff.SStaff.StaffNamePrefix,SStaff.SStaff.StaffNameSuffix</t>
+    <t>SStaff.SStaff.FirstName
+SStaff.SStaff.LastName
+SStaff.SStaff.MiddleName
+SStaff.SStaff.StaffNamePrefix
+SStaff.SStaff.StaffNameSuffix</t>
   </si>
   <si>
     <t>implied by XPN.11</t>
@@ -1410,7 +1418,8 @@
     <t>383: source value based on NEW PERSON - PHONE (HOME) (200-.131)</t>
   </si>
   <si>
-    <t>SStaff.PrescribingProvider.HomePhone,SStaff.SStaff.HomePhone</t>
+    <t>SStaff.PrescribingProvider.HomePhone
+SStaff.SStaff.HomePhone</t>
   </si>
   <si>
     <t>XTN.1 (or XTN.12)</t>
@@ -1825,7 +1834,8 @@
     <t>1790: terminologyMaps using VF_providerGender on NEW PERSON - SEX (200-4)</t>
   </si>
   <si>
-    <t>SStaff.SStaff.Gender,Staff.Staff.Gender</t>
+    <t>SStaff.SStaff.Gender
+Staff.Staff.Gender</t>
   </si>
   <si>
     <t>STF-5</t>
@@ -1856,7 +1866,8 @@
     <t>394: source value based on NEW PERSON - DOB (200-5)</t>
   </si>
   <si>
-    <t>SStaff.SStaff.BirthDateTime,Staff.Staff.BirthDateTime</t>
+    <t>SStaff.SStaff.BirthDateTime
+Staff.Staff.BirthDateTime</t>
   </si>
   <si>
     <t>STF-6</t>
@@ -2026,7 +2037,8 @@
     <t>395: source value based on NEW PERSON - DEGREE (200-10.6)</t>
   </si>
   <si>
-    <t>SStaff.SStaff.Degree,Staff.Staff.Degree</t>
+    <t>SStaff.SStaff.Degree
+Staff.Staff.Degree</t>
   </si>
   <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
@@ -2451,7 +2463,7 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="104.45703125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="106.09375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="37.671875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="92.07421875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="87.9765625" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="44.90625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-Practitioner.xlsx
+++ b/docs/StructureDefinition-Practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Practitioner.xlsx
+++ b/docs/StructureDefinition-Practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
